--- a/biology/Zoologie/Eleutherodactylus_fuscus/Eleutherodactylus_fuscus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_fuscus/Eleutherodactylus_fuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus fuscus est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus fuscus est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Jamaïque[1]. Elle se rencontre dans l'ouest de l'île dans les paroisses de Hanover, de Westmoreland, de St. James et de St. Elizabeth entre 120 et 680 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Jamaïque. Elle se rencontre dans l'ouest de l'île dans les paroisses de Hanover, de Westmoreland, de St. James et de St. Elizabeth entre 120 et 680 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 37 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 37 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lynn &amp; Dent, 1943 : Notes on Jamaican amphibians Copeia, vol. 1943, no 4, p. 234-242.</t>
         </is>
